--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Fbn1-Itga5.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Fbn1-Itga5.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>23.7851436868449</v>
+        <v>25.51004766666667</v>
       </c>
       <c r="H2">
-        <v>23.7851436868449</v>
+        <v>76.53014300000001</v>
       </c>
       <c r="I2">
-        <v>0.05018895091802688</v>
+        <v>0.05349777980923716</v>
       </c>
       <c r="J2">
-        <v>0.05018895091802688</v>
+        <v>0.05349777980923716</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>42.8578073733629</v>
+        <v>42.909214</v>
       </c>
       <c r="N2">
-        <v>42.8578073733629</v>
+        <v>128.727642</v>
       </c>
       <c r="O2">
-        <v>0.2452937058627052</v>
+        <v>0.2422627718984814</v>
       </c>
       <c r="P2">
-        <v>0.2452937058627052</v>
+        <v>0.2422627718984814</v>
       </c>
       <c r="Q2">
-        <v>1019.379106478557</v>
+        <v>1094.616094479201</v>
       </c>
       <c r="R2">
-        <v>1019.379106478557</v>
+        <v>9851.544850312808</v>
       </c>
       <c r="S2">
-        <v>0.01231103376404423</v>
+        <v>0.01296052042700041</v>
       </c>
       <c r="T2">
-        <v>0.01231103376404423</v>
+        <v>0.01296052042700041</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>23.7851436868449</v>
+        <v>25.51004766666667</v>
       </c>
       <c r="H3">
-        <v>23.7851436868449</v>
+        <v>76.53014300000001</v>
       </c>
       <c r="I3">
-        <v>0.05018895091802688</v>
+        <v>0.05349777980923716</v>
       </c>
       <c r="J3">
-        <v>0.05018895091802688</v>
+        <v>0.05349777980923716</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>53.3594590699601</v>
+        <v>53.36146666666667</v>
       </c>
       <c r="N3">
-        <v>53.3594590699601</v>
+        <v>160.0844</v>
       </c>
       <c r="O3">
-        <v>0.3053991853590438</v>
+        <v>0.3012755448569878</v>
       </c>
       <c r="P3">
-        <v>0.3053991853590438</v>
+        <v>0.3012755448569878</v>
       </c>
       <c r="Q3">
-        <v>1269.16240103132</v>
+        <v>1361.253558229911</v>
       </c>
       <c r="R3">
-        <v>1269.16240103132</v>
+        <v>12251.2820240692</v>
       </c>
       <c r="S3">
-        <v>0.01532766472439044</v>
+        <v>0.01611757276066709</v>
       </c>
       <c r="T3">
-        <v>0.01532766472439044</v>
+        <v>0.01611757276066709</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>23.7851436868449</v>
+        <v>25.51004766666667</v>
       </c>
       <c r="H4">
-        <v>23.7851436868449</v>
+        <v>76.53014300000001</v>
       </c>
       <c r="I4">
-        <v>0.05018895091802688</v>
+        <v>0.05349777980923716</v>
       </c>
       <c r="J4">
-        <v>0.05018895091802688</v>
+        <v>0.05349777980923716</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>39.0973488729948</v>
+        <v>39.98186433333333</v>
       </c>
       <c r="N4">
-        <v>39.0973488729948</v>
+        <v>119.945593</v>
       </c>
       <c r="O4">
-        <v>0.2237709808837436</v>
+        <v>0.2257351364921847</v>
       </c>
       <c r="P4">
-        <v>0.2237709808837436</v>
+        <v>0.2257351364921847</v>
       </c>
       <c r="Q4">
-        <v>929.9360607188848</v>
+        <v>1019.939264945533</v>
       </c>
       <c r="R4">
-        <v>929.9360607188848</v>
+        <v>9179.453384509799</v>
       </c>
       <c r="S4">
-        <v>0.01123083077645294</v>
+        <v>0.01207632862726699</v>
       </c>
       <c r="T4">
-        <v>0.01123083077645294</v>
+        <v>0.01207632862726699</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>23.7851436868449</v>
+        <v>25.51004766666667</v>
       </c>
       <c r="H5">
-        <v>23.7851436868449</v>
+        <v>76.53014300000001</v>
       </c>
       <c r="I5">
-        <v>0.05018895091802688</v>
+        <v>0.05349777980923716</v>
       </c>
       <c r="J5">
-        <v>0.05018895091802688</v>
+        <v>0.05349777980923716</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>33.2355516879285</v>
+        <v>34.39145933333334</v>
       </c>
       <c r="N5">
-        <v>33.2355516879285</v>
+        <v>103.174378</v>
       </c>
       <c r="O5">
-        <v>0.1902213888102547</v>
+        <v>0.1941720551610951</v>
       </c>
       <c r="P5">
-        <v>0.1902213888102547</v>
+        <v>0.1941720551610951</v>
       </c>
       <c r="Q5">
-        <v>790.5123724089399</v>
+        <v>877.3277669195617</v>
       </c>
       <c r="R5">
-        <v>790.5123724089399</v>
+        <v>7895.949902276056</v>
       </c>
       <c r="S5">
-        <v>0.009547011946556784</v>
+        <v>0.01038777385211532</v>
       </c>
       <c r="T5">
-        <v>0.009547011946556784</v>
+        <v>0.01038777385211532</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>23.7851436868449</v>
+        <v>25.51004766666667</v>
       </c>
       <c r="H6">
-        <v>23.7851436868449</v>
+        <v>76.53014300000001</v>
       </c>
       <c r="I6">
-        <v>0.05018895091802688</v>
+        <v>0.05349777980923716</v>
       </c>
       <c r="J6">
-        <v>0.05018895091802688</v>
+        <v>0.05349777980923716</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.17020432623986</v>
+        <v>6.474476</v>
       </c>
       <c r="N6">
-        <v>6.17020432623986</v>
+        <v>19.423428</v>
       </c>
       <c r="O6">
-        <v>0.03531473908425267</v>
+        <v>0.03655449159125106</v>
       </c>
       <c r="P6">
-        <v>0.03531473908425267</v>
+        <v>0.03655449159125106</v>
       </c>
       <c r="Q6">
-        <v>146.7591964768071</v>
+        <v>165.1641913766894</v>
       </c>
       <c r="R6">
-        <v>146.7591964768071</v>
+        <v>1486.477722390204</v>
       </c>
       <c r="S6">
-        <v>0.001772409706582483</v>
+        <v>0.001955584142187361</v>
       </c>
       <c r="T6">
-        <v>0.001772409706582483</v>
+        <v>0.001955584142187361</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>438.914265707251</v>
+        <v>439.2986856666666</v>
       </c>
       <c r="H7">
-        <v>438.914265707251</v>
+        <v>1317.896057</v>
       </c>
       <c r="I7">
-        <v>0.9261515014932048</v>
+        <v>0.921264619469584</v>
       </c>
       <c r="J7">
-        <v>0.9261515014932048</v>
+        <v>0.921264619469584</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>42.8578073733629</v>
+        <v>42.909214</v>
       </c>
       <c r="N7">
-        <v>42.8578073733629</v>
+        <v>128.727642</v>
       </c>
       <c r="O7">
-        <v>0.2452937058627052</v>
+        <v>0.2422627718984814</v>
       </c>
       <c r="P7">
-        <v>0.2452937058627052</v>
+        <v>0.2422627718984814</v>
       </c>
       <c r="Q7">
-        <v>18810.90305310239</v>
+        <v>18849.96131318973</v>
       </c>
       <c r="R7">
-        <v>18810.90305310239</v>
+        <v>169649.6518187076</v>
       </c>
       <c r="S7">
-        <v>0.2271791339915769</v>
+        <v>0.2231881203647011</v>
       </c>
       <c r="T7">
-        <v>0.2271791339915769</v>
+        <v>0.2231881203647011</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>438.914265707251</v>
+        <v>439.2986856666666</v>
       </c>
       <c r="H8">
-        <v>438.914265707251</v>
+        <v>1317.896057</v>
       </c>
       <c r="I8">
-        <v>0.9261515014932048</v>
+        <v>0.921264619469584</v>
       </c>
       <c r="J8">
-        <v>0.9261515014932048</v>
+        <v>0.921264619469584</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>53.3594590699601</v>
+        <v>53.36146666666667</v>
       </c>
       <c r="N8">
-        <v>53.3594590699601</v>
+        <v>160.0844</v>
       </c>
       <c r="O8">
-        <v>0.3053991853590438</v>
+        <v>0.3012755448569878</v>
       </c>
       <c r="P8">
-        <v>0.3053991853590438</v>
+        <v>0.3012755448569878</v>
       </c>
       <c r="Q8">
-        <v>23420.22779622765</v>
+        <v>23441.62217191231</v>
       </c>
       <c r="R8">
-        <v>23420.22779622765</v>
+        <v>210974.5995472108</v>
       </c>
       <c r="S8">
-        <v>0.2828459140750799</v>
+        <v>0.2775545001881644</v>
       </c>
       <c r="T8">
-        <v>0.2828459140750799</v>
+        <v>0.2775545001881644</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>438.914265707251</v>
+        <v>439.2986856666666</v>
       </c>
       <c r="H9">
-        <v>438.914265707251</v>
+        <v>1317.896057</v>
       </c>
       <c r="I9">
-        <v>0.9261515014932048</v>
+        <v>0.921264619469584</v>
       </c>
       <c r="J9">
-        <v>0.9261515014932048</v>
+        <v>0.921264619469584</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>39.0973488729948</v>
+        <v>39.98186433333333</v>
       </c>
       <c r="N9">
-        <v>39.0973488729948</v>
+        <v>119.945593</v>
       </c>
       <c r="O9">
-        <v>0.2237709808837436</v>
+        <v>0.2257351364921847</v>
       </c>
       <c r="P9">
-        <v>0.2237709808837436</v>
+        <v>0.2257351364921847</v>
       </c>
       <c r="Q9">
-        <v>17160.38417169073</v>
+        <v>17563.98045213631</v>
       </c>
       <c r="R9">
-        <v>17160.38417169073</v>
+        <v>158075.8240692268</v>
       </c>
       <c r="S9">
-        <v>0.2072458299360863</v>
+        <v>0.2079617946213872</v>
       </c>
       <c r="T9">
-        <v>0.2072458299360863</v>
+        <v>0.2079617946213871</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>438.914265707251</v>
+        <v>439.2986856666666</v>
       </c>
       <c r="H10">
-        <v>438.914265707251</v>
+        <v>1317.896057</v>
       </c>
       <c r="I10">
-        <v>0.9261515014932048</v>
+        <v>0.921264619469584</v>
       </c>
       <c r="J10">
-        <v>0.9261515014932048</v>
+        <v>0.921264619469584</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>33.2355516879285</v>
+        <v>34.39145933333334</v>
       </c>
       <c r="N10">
-        <v>33.2355516879285</v>
+        <v>103.174378</v>
       </c>
       <c r="O10">
-        <v>0.1902213888102547</v>
+        <v>0.1941720551610951</v>
       </c>
       <c r="P10">
-        <v>0.1902213888102547</v>
+        <v>0.1941720551610951</v>
       </c>
       <c r="Q10">
-        <v>14587.55776448252</v>
+        <v>15108.12288329195</v>
       </c>
       <c r="R10">
-        <v>14587.55776448252</v>
+        <v>135973.1059496276</v>
       </c>
       <c r="S10">
-        <v>0.1761738248627401</v>
+        <v>0.1788838445096134</v>
       </c>
       <c r="T10">
-        <v>0.1761738248627401</v>
+        <v>0.1788838445096133</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>438.914265707251</v>
+        <v>439.2986856666666</v>
       </c>
       <c r="H11">
-        <v>438.914265707251</v>
+        <v>1317.896057</v>
       </c>
       <c r="I11">
-        <v>0.9261515014932048</v>
+        <v>0.921264619469584</v>
       </c>
       <c r="J11">
-        <v>0.9261515014932048</v>
+        <v>0.921264619469584</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.17020432623986</v>
+        <v>6.474476</v>
       </c>
       <c r="N11">
-        <v>6.17020432623986</v>
+        <v>19.423428</v>
       </c>
       <c r="O11">
-        <v>0.03531473908425267</v>
+        <v>0.03655449159125106</v>
       </c>
       <c r="P11">
-        <v>0.03531473908425267</v>
+        <v>0.03655449159125106</v>
       </c>
       <c r="Q11">
-        <v>2708.190701115272</v>
+        <v>2844.228797180377</v>
       </c>
       <c r="R11">
-        <v>2708.190701115272</v>
+        <v>25598.05917462339</v>
       </c>
       <c r="S11">
-        <v>0.03270679862772138</v>
+        <v>0.03367635978571802</v>
       </c>
       <c r="T11">
-        <v>0.03270679862772138</v>
+        <v>0.03367635978571802</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.06271857251998519</v>
+        <v>0.065331</v>
       </c>
       <c r="H12">
-        <v>0.06271857251998519</v>
+        <v>0.195993</v>
       </c>
       <c r="I12">
-        <v>0.0001323422468788877</v>
+        <v>0.0001370073274023782</v>
       </c>
       <c r="J12">
-        <v>0.0001323422468788877</v>
+        <v>0.0001370073274023782</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>42.8578073733629</v>
+        <v>42.909214</v>
       </c>
       <c r="N12">
-        <v>42.8578073733629</v>
+        <v>128.727642</v>
       </c>
       <c r="O12">
-        <v>0.2452937058627052</v>
+        <v>0.2422627718984814</v>
       </c>
       <c r="P12">
-        <v>0.2452937058627052</v>
+        <v>0.2422627718984814</v>
       </c>
       <c r="Q12">
-        <v>2.687980499793817</v>
+        <v>2.803301859834</v>
       </c>
       <c r="R12">
-        <v>2.687980499793817</v>
+        <v>25.229716738506</v>
       </c>
       <c r="S12">
-        <v>3.24627201791194E-05</v>
+        <v>3.31917749069029E-05</v>
       </c>
       <c r="T12">
-        <v>3.24627201791194E-05</v>
+        <v>3.31917749069029E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.06271857251998519</v>
+        <v>0.065331</v>
       </c>
       <c r="H13">
-        <v>0.06271857251998519</v>
+        <v>0.195993</v>
       </c>
       <c r="I13">
-        <v>0.0001323422468788877</v>
+        <v>0.0001370073274023782</v>
       </c>
       <c r="J13">
-        <v>0.0001323422468788877</v>
+        <v>0.0001370073274023782</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>53.3594590699601</v>
+        <v>53.36146666666667</v>
       </c>
       <c r="N13">
-        <v>53.3594590699601</v>
+        <v>160.0844</v>
       </c>
       <c r="O13">
-        <v>0.3053991853590438</v>
+        <v>0.3012755448569878</v>
       </c>
       <c r="P13">
-        <v>0.3053991853590438</v>
+        <v>0.3012755448569878</v>
       </c>
       <c r="Q13">
-        <v>3.346629103306475</v>
+        <v>3.486157978800001</v>
       </c>
       <c r="R13">
-        <v>3.346629103306475</v>
+        <v>31.3754218092</v>
       </c>
       <c r="S13">
-        <v>4.041721438539777E-05</v>
+        <v>4.127695721255119E-05</v>
       </c>
       <c r="T13">
-        <v>4.041721438539777E-05</v>
+        <v>4.127695721255119E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.06271857251998519</v>
+        <v>0.065331</v>
       </c>
       <c r="H14">
-        <v>0.06271857251998519</v>
+        <v>0.195993</v>
       </c>
       <c r="I14">
-        <v>0.0001323422468788877</v>
+        <v>0.0001370073274023782</v>
       </c>
       <c r="J14">
-        <v>0.0001323422468788877</v>
+        <v>0.0001370073274023782</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>39.0973488729948</v>
+        <v>39.98186433333333</v>
       </c>
       <c r="N14">
-        <v>39.0973488729948</v>
+        <v>119.945593</v>
       </c>
       <c r="O14">
-        <v>0.2237709808837436</v>
+        <v>0.2257351364921847</v>
       </c>
       <c r="P14">
-        <v>0.2237709808837436</v>
+        <v>0.2257351364921847</v>
       </c>
       <c r="Q14">
-        <v>2.452129910630086</v>
+        <v>2.612055178761</v>
       </c>
       <c r="R14">
-        <v>2.452129910630086</v>
+        <v>23.508496608849</v>
       </c>
       <c r="S14">
-        <v>2.961435439644726E-05</v>
+        <v>3.092736775160527E-05</v>
       </c>
       <c r="T14">
-        <v>2.961435439644726E-05</v>
+        <v>3.092736775160527E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.06271857251998519</v>
+        <v>0.065331</v>
       </c>
       <c r="H15">
-        <v>0.06271857251998519</v>
+        <v>0.195993</v>
       </c>
       <c r="I15">
-        <v>0.0001323422468788877</v>
+        <v>0.0001370073274023782</v>
       </c>
       <c r="J15">
-        <v>0.0001323422468788877</v>
+        <v>0.0001370073274023782</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>33.2355516879285</v>
+        <v>34.39145933333334</v>
       </c>
       <c r="N15">
-        <v>33.2355516879285</v>
+        <v>103.174378</v>
       </c>
       <c r="O15">
-        <v>0.1902213888102547</v>
+        <v>0.1941720551610951</v>
       </c>
       <c r="P15">
-        <v>0.1902213888102547</v>
+        <v>0.1941720551610951</v>
       </c>
       <c r="Q15">
-        <v>2.08448635878106</v>
+        <v>2.246828429706</v>
       </c>
       <c r="R15">
-        <v>2.08448635878106</v>
+        <v>20.221455867354</v>
       </c>
       <c r="S15">
-        <v>2.517432599957163E-05</v>
+        <v>2.660299433384879E-05</v>
       </c>
       <c r="T15">
-        <v>2.517432599957163E-05</v>
+        <v>2.660299433384878E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.06271857251998519</v>
+        <v>0.065331</v>
       </c>
       <c r="H16">
-        <v>0.06271857251998519</v>
+        <v>0.195993</v>
       </c>
       <c r="I16">
-        <v>0.0001323422468788877</v>
+        <v>0.0001370073274023782</v>
       </c>
       <c r="J16">
-        <v>0.0001323422468788877</v>
+        <v>0.0001370073274023782</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.17020432623986</v>
+        <v>6.474476</v>
       </c>
       <c r="N16">
-        <v>6.17020432623986</v>
+        <v>19.423428</v>
       </c>
       <c r="O16">
-        <v>0.03531473908425267</v>
+        <v>0.03655449159125106</v>
       </c>
       <c r="P16">
-        <v>0.03531473908425267</v>
+        <v>0.03655449159125106</v>
       </c>
       <c r="Q16">
-        <v>0.386986407498401</v>
+        <v>0.422983991556</v>
       </c>
       <c r="R16">
-        <v>0.386986407498401</v>
+        <v>3.806855924004</v>
       </c>
       <c r="S16">
-        <v>4.673631918351673E-06</v>
+        <v>5.008233197470013E-06</v>
       </c>
       <c r="T16">
-        <v>4.673631918351673E-06</v>
+        <v>5.008233197470013E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.220799906767722</v>
+        <v>0.2241876666666666</v>
       </c>
       <c r="H17">
-        <v>0.220799906767722</v>
+        <v>0.6725629999999999</v>
       </c>
       <c r="I17">
-        <v>0.0004659091334226074</v>
+        <v>0.0004701497458568706</v>
       </c>
       <c r="J17">
-        <v>0.0004659091334226074</v>
+        <v>0.0004701497458568706</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>42.8578073733629</v>
+        <v>42.909214</v>
       </c>
       <c r="N17">
-        <v>42.8578073733629</v>
+        <v>128.727642</v>
       </c>
       <c r="O17">
-        <v>0.2452937058627052</v>
+        <v>0.2422627718984814</v>
       </c>
       <c r="P17">
-        <v>0.2452937058627052</v>
+        <v>0.2422627718984814</v>
       </c>
       <c r="Q17">
-        <v>9.462999872307517</v>
+        <v>9.619716565160665</v>
       </c>
       <c r="R17">
-        <v>9.462999872307517</v>
+        <v>86.57744908644599</v>
       </c>
       <c r="S17">
-        <v>0.0001142845779325129</v>
+        <v>0.0001138997806386521</v>
       </c>
       <c r="T17">
-        <v>0.0001142845779325129</v>
+        <v>0.000113899780638652</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.220799906767722</v>
+        <v>0.2241876666666666</v>
       </c>
       <c r="H18">
-        <v>0.220799906767722</v>
+        <v>0.6725629999999999</v>
       </c>
       <c r="I18">
-        <v>0.0004659091334226074</v>
+        <v>0.0004701497458568706</v>
       </c>
       <c r="J18">
-        <v>0.0004659091334226074</v>
+        <v>0.0004701497458568706</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>53.3594590699601</v>
+        <v>53.36146666666667</v>
       </c>
       <c r="N18">
-        <v>53.3594590699601</v>
+        <v>160.0844</v>
       </c>
       <c r="O18">
-        <v>0.3053991853590438</v>
+        <v>0.3012755448569878</v>
       </c>
       <c r="P18">
-        <v>0.3053991853590438</v>
+        <v>0.3012755448569878</v>
       </c>
       <c r="Q18">
-        <v>11.78176358782327</v>
+        <v>11.96298270191111</v>
       </c>
       <c r="R18">
-        <v>11.78176358782327</v>
+        <v>107.6668443172</v>
       </c>
       <c r="S18">
-        <v>0.0001422882697986023</v>
+        <v>0.000141644620847403</v>
       </c>
       <c r="T18">
-        <v>0.0001422882697986023</v>
+        <v>0.000141644620847403</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.220799906767722</v>
+        <v>0.2241876666666666</v>
       </c>
       <c r="H19">
-        <v>0.220799906767722</v>
+        <v>0.6725629999999999</v>
       </c>
       <c r="I19">
-        <v>0.0004659091334226074</v>
+        <v>0.0004701497458568706</v>
       </c>
       <c r="J19">
-        <v>0.0004659091334226074</v>
+        <v>0.0004701497458568706</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>39.0973488729948</v>
+        <v>39.98186433333333</v>
       </c>
       <c r="N19">
-        <v>39.0973488729948</v>
+        <v>119.945593</v>
       </c>
       <c r="O19">
-        <v>0.2237709808837436</v>
+        <v>0.2257351364921847</v>
       </c>
       <c r="P19">
-        <v>0.2237709808837436</v>
+        <v>0.2257351364921847</v>
       </c>
       <c r="Q19">
-        <v>8.632690986022352</v>
+        <v>8.963440873873221</v>
       </c>
       <c r="R19">
-        <v>8.632690986022352</v>
+        <v>80.67096786485899</v>
       </c>
       <c r="S19">
-        <v>0.0001042569437886718</v>
+        <v>0.0001061293170527666</v>
       </c>
       <c r="T19">
-        <v>0.0001042569437886718</v>
+        <v>0.0001061293170527666</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.220799906767722</v>
+        <v>0.2241876666666666</v>
       </c>
       <c r="H20">
-        <v>0.220799906767722</v>
+        <v>0.6725629999999999</v>
       </c>
       <c r="I20">
-        <v>0.0004659091334226074</v>
+        <v>0.0004701497458568706</v>
       </c>
       <c r="J20">
-        <v>0.0004659091334226074</v>
+        <v>0.0004701497458568706</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>33.2355516879285</v>
+        <v>34.39145933333334</v>
       </c>
       <c r="N20">
-        <v>33.2355516879285</v>
+        <v>103.174378</v>
       </c>
       <c r="O20">
-        <v>0.1902213888102547</v>
+        <v>0.1941720551610951</v>
       </c>
       <c r="P20">
-        <v>0.1902213888102547</v>
+        <v>0.1941720551610951</v>
       </c>
       <c r="Q20">
-        <v>7.338406714068418</v>
+        <v>7.710141021201555</v>
       </c>
       <c r="R20">
-        <v>7.338406714068418</v>
+        <v>69.391269190814</v>
       </c>
       <c r="S20">
-        <v>8.862588241903065E-05</v>
+        <v>9.128994238649512E-05</v>
       </c>
       <c r="T20">
-        <v>8.862588241903065E-05</v>
+        <v>9.128994238649509E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.220799906767722</v>
+        <v>0.2241876666666666</v>
       </c>
       <c r="H21">
-        <v>0.220799906767722</v>
+        <v>0.6725629999999999</v>
       </c>
       <c r="I21">
-        <v>0.0004659091334226074</v>
+        <v>0.0004701497458568706</v>
       </c>
       <c r="J21">
-        <v>0.0004659091334226074</v>
+        <v>0.0004701497458568706</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>6.17020432623986</v>
+        <v>6.474476</v>
       </c>
       <c r="N21">
-        <v>6.17020432623986</v>
+        <v>19.423428</v>
       </c>
       <c r="O21">
-        <v>0.03531473908425267</v>
+        <v>0.03655449159125106</v>
       </c>
       <c r="P21">
-        <v>0.03531473908425267</v>
+        <v>0.03655449159125106</v>
       </c>
       <c r="Q21">
-        <v>1.362380539971556</v>
+        <v>1.451497667329333</v>
       </c>
       <c r="R21">
-        <v>1.362380539971556</v>
+        <v>13.063479005964</v>
       </c>
       <c r="S21">
-        <v>1.645345948378965E-05</v>
+        <v>1.71860849315538E-05</v>
       </c>
       <c r="T21">
-        <v>1.645345948378965E-05</v>
+        <v>1.71860849315538E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>10.9290238964979</v>
+        <v>11.74485733333333</v>
       </c>
       <c r="H22">
-        <v>10.9290238964979</v>
+        <v>35.234572</v>
       </c>
       <c r="I22">
-        <v>0.02306129620846687</v>
+        <v>0.02463044364791939</v>
       </c>
       <c r="J22">
-        <v>0.02306129620846687</v>
+        <v>0.02463044364791939</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>42.8578073733629</v>
+        <v>42.909214</v>
       </c>
       <c r="N22">
-        <v>42.8578073733629</v>
+        <v>128.727642</v>
       </c>
       <c r="O22">
-        <v>0.2452937058627052</v>
+        <v>0.2422627718984814</v>
       </c>
       <c r="P22">
-        <v>0.2452937058627052</v>
+        <v>0.2422627718984814</v>
       </c>
       <c r="Q22">
-        <v>468.3940009349871</v>
+        <v>503.9625967154693</v>
       </c>
       <c r="R22">
-        <v>468.3940009349871</v>
+        <v>4535.663370439224</v>
       </c>
       <c r="S22">
-        <v>0.005656790808972389</v>
+        <v>0.005967039551234296</v>
       </c>
       <c r="T22">
-        <v>0.005656790808972389</v>
+        <v>0.005967039551234296</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>10.9290238964979</v>
+        <v>11.74485733333333</v>
       </c>
       <c r="H23">
-        <v>10.9290238964979</v>
+        <v>35.234572</v>
       </c>
       <c r="I23">
-        <v>0.02306129620846687</v>
+        <v>0.02463044364791939</v>
       </c>
       <c r="J23">
-        <v>0.02306129620846687</v>
+        <v>0.02463044364791939</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>53.3594590699601</v>
+        <v>53.36146666666667</v>
       </c>
       <c r="N23">
-        <v>53.3594590699601</v>
+        <v>160.0844</v>
       </c>
       <c r="O23">
-        <v>0.3053991853590438</v>
+        <v>0.3012755448569878</v>
       </c>
       <c r="P23">
-        <v>0.3053991853590438</v>
+        <v>0.3012755448569878</v>
       </c>
       <c r="Q23">
-        <v>583.1668032797957</v>
+        <v>626.7228130974223</v>
       </c>
       <c r="R23">
-        <v>583.1668032797957</v>
+        <v>5640.5053178768</v>
       </c>
       <c r="S23">
-        <v>0.007042901075389386</v>
+        <v>0.007420550330096249</v>
       </c>
       <c r="T23">
-        <v>0.007042901075389386</v>
+        <v>0.007420550330096249</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>10.9290238964979</v>
+        <v>11.74485733333333</v>
       </c>
       <c r="H24">
-        <v>10.9290238964979</v>
+        <v>35.234572</v>
       </c>
       <c r="I24">
-        <v>0.02306129620846687</v>
+        <v>0.02463044364791939</v>
       </c>
       <c r="J24">
-        <v>0.02306129620846687</v>
+        <v>0.02463044364791939</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>39.0973488729948</v>
+        <v>39.98186433333333</v>
       </c>
       <c r="N24">
-        <v>39.0973488729948</v>
+        <v>119.945593</v>
       </c>
       <c r="O24">
-        <v>0.2237709808837436</v>
+        <v>0.2257351364921847</v>
       </c>
       <c r="P24">
-        <v>0.2237709808837436</v>
+        <v>0.2257351364921847</v>
       </c>
       <c r="Q24">
-        <v>427.2958601226754</v>
+        <v>469.5812925156885</v>
       </c>
       <c r="R24">
-        <v>427.2958601226754</v>
+        <v>4226.231632641196</v>
       </c>
       <c r="S24">
-        <v>0.005160448873019187</v>
+        <v>0.005559956558726148</v>
       </c>
       <c r="T24">
-        <v>0.005160448873019187</v>
+        <v>0.005559956558726147</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>10.9290238964979</v>
+        <v>11.74485733333333</v>
       </c>
       <c r="H25">
-        <v>10.9290238964979</v>
+        <v>35.234572</v>
       </c>
       <c r="I25">
-        <v>0.02306129620846687</v>
+        <v>0.02463044364791939</v>
       </c>
       <c r="J25">
-        <v>0.02306129620846687</v>
+        <v>0.02463044364791939</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>33.2355516879285</v>
+        <v>34.39145933333334</v>
       </c>
       <c r="N25">
-        <v>33.2355516879285</v>
+        <v>103.174378</v>
       </c>
       <c r="O25">
-        <v>0.1902213888102547</v>
+        <v>0.1941720551610951</v>
       </c>
       <c r="P25">
-        <v>0.1902213888102547</v>
+        <v>0.1941720551610951</v>
       </c>
       <c r="Q25">
-        <v>363.2321386106617</v>
+        <v>403.9227833551352</v>
       </c>
       <c r="R25">
-        <v>363.2321386106617</v>
+        <v>3635.305050196216</v>
       </c>
       <c r="S25">
-        <v>0.004386751792539229</v>
+        <v>0.004782543862646049</v>
       </c>
       <c r="T25">
-        <v>0.004386751792539229</v>
+        <v>0.004782543862646048</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>10.9290238964979</v>
+        <v>11.74485733333333</v>
       </c>
       <c r="H26">
-        <v>10.9290238964979</v>
+        <v>35.234572</v>
       </c>
       <c r="I26">
-        <v>0.02306129620846687</v>
+        <v>0.02463044364791939</v>
       </c>
       <c r="J26">
-        <v>0.02306129620846687</v>
+        <v>0.02463044364791939</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>6.17020432623986</v>
+        <v>6.474476</v>
       </c>
       <c r="N26">
-        <v>6.17020432623986</v>
+        <v>19.423428</v>
       </c>
       <c r="O26">
-        <v>0.03531473908425267</v>
+        <v>0.03655449159125106</v>
       </c>
       <c r="P26">
-        <v>0.03531473908425267</v>
+        <v>0.03655449159125106</v>
       </c>
       <c r="Q26">
-        <v>67.43431052775016</v>
+        <v>76.04179692809068</v>
       </c>
       <c r="R26">
-        <v>67.43431052775016</v>
+        <v>684.3761723528161</v>
       </c>
       <c r="S26">
-        <v>0.0008144036585466728</v>
+        <v>0.0009003533452166527</v>
       </c>
       <c r="T26">
-        <v>0.0008144036585466728</v>
+        <v>0.0009003533452166527</v>
       </c>
     </row>
   </sheetData>
